--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BD4D67-A735-4E36-9FD6-FF430A6D4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B410D0-79C5-4E90-ABF1-DA62E0D8F43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>传感器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,17 @@
   <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2*70mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://e.tb.cn/h.hlaxQQcLkkv2za2?tk=q1Zm4ejietV</t>
   </si>
 </sst>
 </file>
@@ -624,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -661,7 +672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -681,7 +692,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -701,7 +712,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -721,7 +732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -741,7 +752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -761,7 +772,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -781,7 +792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -801,7 +812,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -821,7 +832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,7 +852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,7 +872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -881,7 +892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -901,7 +912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -941,29 +952,49 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>-31.34</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f>SUM(B1:B16)</f>
-        <v>-317.32</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f>SUM(B1:B17)</f>
+        <v>-325.32</v>
       </c>
     </row>
   </sheetData>
